--- a/console/Networking/iaas网络与容器中文提取/dockerExcel/components/docker_list_item.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/dockerExcel/components/docker_list_item.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -941,18 +936,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>OK</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Intranet</t>
     </r>
   </si>
@@ -982,6 +965,10 @@
   </si>
   <si>
     <t>Please select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,7 +976,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -999,6 +986,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1025,9 +1027,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1369,17 +1377,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="58.21875" style="1"/>
+    <col min="1" max="1" width="26.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="58.21875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1525,7 +1535,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1547,7 +1557,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="135" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="90" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1558,7 +1568,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1569,7 +1579,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1580,7 +1590,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1591,7 +1601,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1602,7 +1612,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1613,7 +1623,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1624,7 +1634,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1632,10 +1642,11 @@
         <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1643,10 +1654,10 @@
         <v>47</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1654,10 +1665,10 @@
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1665,10 +1676,10 @@
         <v>51</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1676,12 +1687,13 @@
         <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B27" numberStoredAsText="1"/>
   </ignoredErrors>
